--- a/cypress/downloads/Agents_20251201.xlsx
+++ b/cypress/downloads/Agents_20251201.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Agent Name</t>
   </si>
@@ -26,16 +26,28 @@
     <t>Agent Teams</t>
   </si>
   <si>
+    <t xml:space="preserve">Desouky  740</t>
+  </si>
+  <si>
+    <t>Desouky29999@ntchnco.com111</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Motor Renewals Team (Cairo), Motor Renewals Team (Alexandria), Non-Motor Renewals Team (Cairo), Non-Motor Renewals Team (Alexandria), Medical &amp; Life Renewals Team (Cairo), Medical &amp; Life Renewals Team (Alexandria), Corporate Motor Renewals Team (Cairo), Corporate Motor Renewals Team (Alexandria), Corporate Non-Motor Renewals Team (Cairo), Corporate Non-Motor Renewals Team (Alexandria), Corporate Medical &amp; Life Renewals Team (Cairo), Corporate Medical &amp; Life Renewals Team (Alexandria), Claims Motor Team (Cairo), Claims Motor Team (Alexandria), Claims Non-Motor Team (Cairo), Claims Non-Motor Team (Alexandria), Claims Medical &amp; Life Team (Cairo), Claims Medical &amp; Life Team (Alexandria), Corporate Claims Motor Team (Cairo), Corporate Claims Motor Team (Alexandria), Corporate Claims Non-Motor Team (Cairo), Corporate Claims Non-Motor Team (Alexandria), Corporate Claims Medical &amp; Life Team (Cairo), Corporate Claims Medical &amp; Life Team (Alexandria), Motor New Sales Team, Non-Motor New Sales Team, Medical &amp; Life New Sales Team, Corporate Motor New Sales Team, Corporate Non-Motor New Sales Team, Corporate Medical &amp; Life New Sales Team, Request for support team, Desouky T, Desouky TU, Team 111111111111, Motor Renewals Team (Cairo) 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desouky  672</t>
+  </si>
+  <si>
+    <t>Desouky29999@ntchnco.com357</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desouky  662</t>
   </si>
   <si>
     <t>662_Desouky@ntchnco.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Motor Renewals Team (Cairo), Motor Renewals Team (Alexandria), Non-Motor Renewals Team (Cairo), Non-Motor Renewals Team (Alexandria), Medical &amp; Life Renewals Team (Cairo), Medical &amp; Life Renewals Team (Alexandria), Corporate Motor Renewals Team (Cairo), Corporate Motor Renewals Team (Alexandria), Corporate Non-Motor Renewals Team (Cairo), Corporate Non-Motor Renewals Team (Alexandria), Corporate Medical &amp; Life Renewals Team (Cairo), Corporate Medical &amp; Life Renewals Team (Alexandria), Claims Motor Team (Cairo), Claims Motor Team (Alexandria), Claims Non-Motor Team (Cairo), Claims Non-Motor Team (Alexandria), Claims Medical &amp; Life Team (Cairo), Claims Medical &amp; Life Team (Alexandria), Corporate Claims Motor Team (Cairo), Corporate Claims Motor Team (Alexandria), Corporate Claims Non-Motor Team (Cairo), Corporate Claims Non-Motor Team (Alexandria), Corporate Claims Medical &amp; Life Team (Cairo), Corporate Claims Medical &amp; Life Team (Alexandria), Motor New Sales Team, Non-Motor New Sales Team, Medical &amp; Life New Sales Team, Corporate Motor New Sales Team, Corporate Non-Motor New Sales Team, Corporate Medical &amp; Life New Sales Team, Request for support team, Desouky T, Desouky TU, Team 111111111111, Motor Renewals Team (Cairo) 2</t>
   </si>
   <si>
     <t xml:space="preserve">Desouky  685</t>
@@ -158,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -242,7 +254,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -250,10 +262,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -264,13 +276,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -287,35 +299,35 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -329,7 +341,35 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
